--- a/results/benchmark.xlsx
+++ b/results/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiskiy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0871CD5C-B056-4C16-B878-AADAD8283703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F592E91-8825-4CFC-AA4E-3F7C27943C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2205" windowWidth="38700" windowHeight="15900" xr2:uid="{294C4440-5826-4299-A7C9-F20F14A3EC47}"/>
+    <workbookView xWindow="27210" yWindow="1500" windowWidth="25380" windowHeight="19545" xr2:uid="{294C4440-5826-4299-A7C9-F20F14A3EC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>GET /</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>go</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>s</t>
@@ -140,10 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -777,25 +765,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20415.900000000001</c:v>
+                  <c:v>20525.330000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34935.93</c:v>
+                  <c:v>32473.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67941.63</c:v>
+                  <c:v>63399.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90494.83</c:v>
+                  <c:v>82851.929999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96863.83</c:v>
+                  <c:v>92417.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122107.63</c:v>
+                  <c:v>113706.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132089.97</c:v>
+                  <c:v>123049.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +889,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1826,25 +1813,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20563.13</c:v>
+                  <c:v>19254.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34599.599999999999</c:v>
+                  <c:v>31013.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65303.43</c:v>
+                  <c:v>60104.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88377.73</c:v>
+                  <c:v>79636.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94079.57</c:v>
+                  <c:v>87611.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119310.53</c:v>
+                  <c:v>109800.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127840.1</c:v>
+                  <c:v>119102.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,25 +2861,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17103.53</c:v>
+                  <c:v>16521.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28413.4</c:v>
+                  <c:v>25220.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56640.4</c:v>
+                  <c:v>51485.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74901.13</c:v>
+                  <c:v>67137.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82842.77</c:v>
+                  <c:v>76656.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103570.33</c:v>
+                  <c:v>95753.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110488.5</c:v>
+                  <c:v>103821.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5508,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13ECE8D-8A42-48A3-A2DE-A14E55AA4615}">
   <dimension ref="A5:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="C23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5534,15 +5521,15 @@
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
@@ -5574,25 +5561,25 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>16622.87</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>23319.07</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>24219.07</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>24152.57</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>24273.47</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>24081.53</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>24223.4</v>
       </c>
     </row>
@@ -5600,25 +5587,25 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>19152.93</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>36192.230000000003</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>56294.97</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>68761</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>84520.2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>111903.83</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>147244.6</v>
       </c>
     </row>
@@ -5626,25 +5613,25 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>18451.330000000002</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>35776.730000000003</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>62642.7</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>78221.73</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>85612.57</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>107025.13</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>113417.9</v>
       </c>
     </row>
@@ -5652,25 +5639,25 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>15166.73</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>26977.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>52466.73</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>70499.67</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>77445.8</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>100939.17</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>121844.73</v>
       </c>
     </row>
@@ -5678,25 +5665,25 @@
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>19343.77</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>31234.93</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>60110.03</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>80995</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>90404.77</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>111433.33</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>120756.7</v>
       </c>
     </row>
@@ -5704,51 +5691,51 @@
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="4">
-        <v>20415.900000000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>34935.93</v>
-      </c>
-      <c r="F23" s="4">
-        <v>67941.63</v>
-      </c>
-      <c r="G23" s="4">
-        <v>90494.83</v>
-      </c>
-      <c r="H23" s="4">
-        <v>96863.83</v>
-      </c>
-      <c r="I23" s="4">
-        <v>122107.63</v>
-      </c>
-      <c r="J23" s="4">
-        <v>132089.97</v>
+      <c r="D23" s="3">
+        <v>20525.330000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32473.97</v>
+      </c>
+      <c r="F23" s="3">
+        <v>63399.3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>82851.929999999993</v>
+      </c>
+      <c r="H23" s="3">
+        <v>92417.9</v>
+      </c>
+      <c r="I23" s="3">
+        <v>113706.6</v>
+      </c>
+      <c r="J23" s="3">
+        <v>123049.93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>20136.63</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>43623.03</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>77713.399999999994</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>102672.6</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>125250.87</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>170414.87</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>220032.57</v>
       </c>
     </row>
@@ -5756,19 +5743,19 @@
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -5930,25 +5917,25 @@
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>20563.13</v>
+        <v>19254.07</v>
       </c>
       <c r="E34" s="1">
-        <v>34599.599999999999</v>
+        <v>31013.73</v>
       </c>
       <c r="F34" s="1">
-        <v>65303.43</v>
+        <v>60104.53</v>
       </c>
       <c r="G34" s="1">
-        <v>88377.73</v>
+        <v>79636.03</v>
       </c>
       <c r="H34" s="1">
-        <v>94079.57</v>
+        <v>87611.47</v>
       </c>
       <c r="I34" s="1">
-        <v>119310.53</v>
+        <v>109800.77</v>
       </c>
       <c r="J34" s="1">
-        <v>127840.1</v>
+        <v>119102.77</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
@@ -5981,15 +5968,15 @@
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
@@ -6152,25 +6139,25 @@
         <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>17103.53</v>
+        <v>16521.53</v>
       </c>
       <c r="E45" s="1">
-        <v>28413.4</v>
+        <v>25220.5</v>
       </c>
       <c r="F45" s="1">
-        <v>56640.4</v>
+        <v>51485.2</v>
       </c>
       <c r="G45" s="1">
-        <v>74901.13</v>
+        <v>67137.47</v>
       </c>
       <c r="H45" s="1">
-        <v>82842.77</v>
+        <v>76656.7</v>
       </c>
       <c r="I45" s="1">
-        <v>103570.33</v>
+        <v>95753.87</v>
       </c>
       <c r="J45" s="1">
-        <v>110488.5</v>
+        <v>103821.57</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
